--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15955,6 +15955,40 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Reuters Tankan IndexJAN</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,7 +2443,11 @@
           <t>BRC Retail Sales Monitor YoYDEC</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>-3.4%</t>
@@ -2479,10 +2483,14 @@
           <t>Building Permits MoM PrelNOV</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2515,10 +2523,14 @@
           <t>Private House Approvals MoM PrelNOV</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -10470,7 +10482,7 @@
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
@@ -10500,7 +10512,7 @@
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -15989,6 +16001,104 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Non-Oil Exports MoMDEC</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Non-Oil Exports YoYDEC</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsJAN</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:H509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16099,6 +16099,312 @@
         </is>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>House Price Index YoYDEC</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-5.7%</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>$6.52B</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate YoYQ4</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate QoQQ4</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Industrial Capacity UtilizationQ4</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H509"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,7 +2559,11 @@
           <t>10-Year JGB Auction</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.140%</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>1.084%</t>
@@ -2587,7 +2591,11 @@
           <t>3-Month Bill Auction</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.2178%</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.1255%</t>
@@ -16405,6 +16413,32 @@
         </is>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H510"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2623,7 +2623,11 @@
           <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>3.19%</t>
@@ -2651,7 +2655,11 @@
           <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>3.31%</t>
@@ -3385,7 +3393,11 @@
           <t>126.62</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>126.62</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>127</t>
@@ -16439,6 +16451,32 @@
         </is>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -2674,37 +2674,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>30-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>2.545%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2720,19 +2716,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYDEC</t>
+          <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2742,37 +2742,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2788,27 +2784,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2824,27 +2820,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2860,17 +2856,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>€275.572B</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H69" t="n">
         <v>3</v>
       </c>
@@ -2888,25 +2892,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€275.572B</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>3</v>
       </c>
@@ -2914,29 +2910,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.17%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2946,29 +2946,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>IPC-Fipe Inflation MoMDEC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>1.17%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2994,13 +2994,13 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3026,17 +3026,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3058,23 +3058,23 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3084,27 +3084,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
+          <t>48.5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3115,92 +3111,100 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>S$505.7B</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>S$502.0B</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+          <t>S$505.7B</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>S$502.0B</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12-Month Letras Auction</t>
+          <t>S&amp;P Global Construction PMIDEC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.207%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+          <t>55.2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>54.8</t>
+        </is>
+      </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3216,13 +3220,13 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6-Month Letras Auction</t>
+          <t>12-Month Letras Auction</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.552%</t>
+          <t>2.207%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3234,37 +3238,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashDEC</t>
+          <t>6-Month Letras Auction</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>2.552%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -3280,23 +3276,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3316,27 +3312,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3352,19 +3348,23 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashDEC</t>
+          <t>Core Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3384,27 +3384,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CPI FlashDEC</t>
+          <t>Inflation Rate MoM FlashDEC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -3415,32 +3411,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>CPI FlashDEC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -3456,27 +3452,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3492,27 +3488,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3528,23 +3524,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3559,22 +3555,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>30-Year Treasury Gilt Auction</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4.747%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H90" t="n">
         <v>3</v>
       </c>
@@ -3582,23 +3586,23 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>30-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>4.747%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3610,31 +3614,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>3</v>
       </c>
@@ -3652,19 +3652,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3679,50 +3679,58 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8.2%</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="H95" t="n">
         <v>2</v>
       </c>
@@ -3730,37 +3738,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>C$-1B</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>C$-1.5B</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3776,23 +3772,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>C$-1B</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>C$-1.5B</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3808,19 +3808,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
+          <t>C$64.22B</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>C$65.5B</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3835,32 +3835,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>C$65.14B</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -3876,19 +3872,23 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>$265.7B</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3908,19 +3908,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>$265.7B</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>$334B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3930,7 +3930,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3940,55 +3940,51 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>$334B</t>
+        </is>
+      </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -3999,23 +3995,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4040,23 +4036,23 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>7.744M</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>7.70M</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4076,23 +4072,27 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>53.7</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+          <t>7.744M</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.70M</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4108,19 +4108,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4140,19 +4140,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4172,19 +4172,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4204,19 +4204,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3.31M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4226,7 +4226,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4236,17 +4236,21 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>3.31M</t>
+        </is>
+      </c>
       <c r="H111" t="n">
         <v>3</v>
       </c>
@@ -4254,7 +4258,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4264,13 +4268,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4280,21 +4284,25 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2.545%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -10658,7 +10666,11 @@
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
@@ -10684,7 +10696,11 @@
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
-      <c r="E323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,10 +2719,14 @@
           <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2755,10 +2759,14 @@
           <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -6528,15 +6536,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
@@ -6556,11 +6560,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
@@ -6580,11 +6588,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
@@ -6604,15 +6616,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
@@ -13892,11 +13900,15 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
@@ -13918,17 +13930,21 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr"/>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H428" t="inlineStr">
         <is>
           <t>3</t>
@@ -13938,89 +13954,97 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>17.0%</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>35.6K</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>17.0%</t>
+          <t>25.1K</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14042,24 +14066,20 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>52.6K</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
+      <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14076,24 +14096,20 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>-17.0K</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
+      <c r="G433" t="inlineStr"/>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14110,81 +14126,81 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>52.6K</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>66.8%</t>
+        </is>
+      </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>-17.0K</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>1.879%</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>66.8%</t>
-        </is>
-      </c>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
           <t>3</t>
@@ -14194,53 +14210,53 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>1.879%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
@@ -14254,60 +14270,72 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr"/>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14324,28 +14352,28 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14362,24 +14390,28 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr"/>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14391,33 +14423,29 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14429,33 +14457,29 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14472,24 +14496,24 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14506,24 +14530,20 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>Goods Trade BalanceNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>£-18.97B</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G446" t="inlineStr"/>
       <c r="H446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14540,21 +14560,17 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
           <t>2</t>
@@ -14574,13 +14590,13 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F448" t="inlineStr"/>
@@ -14604,13 +14620,13 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>£-7.28B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
@@ -14634,20 +14650,20 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14664,20 +14680,24 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr"/>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14694,13 +14714,13 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>£-3.72B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
@@ -14724,21 +14744,17 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
           <t>3</t>
@@ -14748,60 +14764,64 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>€5.153B</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr"/>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14818,17 +14838,21 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr"/>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H456" t="inlineStr">
         <is>
           <t>2</t>
@@ -14848,24 +14872,20 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14882,49 +14902,41 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
@@ -14936,27 +14948,23 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -14976,7 +14984,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
@@ -14992,43 +15000,47 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>€6.8B</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
@@ -15044,53 +15056,61 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15100,93 +15120,97 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>220K</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>262.4K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr">
         <is>
-          <t>220K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -15208,24 +15232,20 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15242,21 +15262,13 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>2</t>
@@ -15276,13 +15288,13 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
@@ -15306,13 +15318,21 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr"/>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H472" t="inlineStr">
         <is>
           <t>2</t>
@@ -15332,20 +15352,16 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15362,24 +15378,20 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15396,13 +15408,21 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr"/>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15422,15 +15442,11 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
@@ -15452,21 +15468,17 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
           <t>3</t>
@@ -15486,11 +15498,15 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
@@ -15512,13 +15528,13 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -15542,13 +15558,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -15572,13 +15588,13 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
@@ -15602,17 +15618,21 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H482" t="inlineStr">
         <is>
           <t>3</t>
@@ -15632,17 +15652,21 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -15652,7 +15676,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -15662,31 +15686,27 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -15696,24 +15716,20 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15746,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -15743,14 +15759,14 @@
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -15760,27 +15776,23 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -15790,15 +15802,11 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
@@ -15810,7 +15818,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -15820,7 +15828,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
@@ -15836,7 +15844,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -15846,7 +15854,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -15862,7 +15870,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -15872,7 +15880,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -15886,23 +15894,23 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A492" t="inlineStr"/>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Consumer Inflation ExpectationsNOV</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="inlineStr">
@@ -15914,47 +15922,35 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H493" t="inlineStr"/>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr"/>
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
@@ -15966,31 +15962,51 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr"/>
-      <c r="C495" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Reuters Tankan IndexJAN</t>
+        </is>
+      </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
@@ -16006,7 +16022,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -16016,21 +16032,13 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16468,26 +16476,146 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Retail Sales ex Fuel MoMDEC</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Retail Sales ex Fuel YoYDEC</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>50-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr">
+        <is>
           <t>2.40%</t>
         </is>
       </c>
-      <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr">
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
         </is>
